--- a/biology/Botanique/Xylopia_parviflora/Xylopia_parviflora.xlsx
+++ b/biology/Botanique/Xylopia_parviflora/Xylopia_parviflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xylopia parviflora Spruce est une espèce d'arbres ou arbustes de la famille des Annonaceae et du genre Xylopia, présente en Afrique tropicale depuis la Casamance jusqu'à l’Angola et du Soudan au Zimbabwe. Au Cameroun, on la rencontre au bord des rivières, dans la forêt dense et les forêts galeries jusque sur le plateau de l’Adamaoua[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xylopia parviflora Spruce est une espèce d'arbres ou arbustes de la famille des Annonaceae et du genre Xylopia, présente en Afrique tropicale depuis la Casamance jusqu'à l’Angola et du Soudan au Zimbabwe. Au Cameroun, on la rencontre au bord des rivières, dans la forêt dense et les forêts galeries jusque sur le plateau de l’Adamaoua.
 </t>
         </is>
       </c>
